--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y395"/>
+  <dimension ref="A1:Y396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
       </c>
       <c r="R394" s="2" t="inlineStr"/>
     </row>
-    <row r="395">
+    <row r="395" ht="15" customHeight="1">
       <c r="A395" t="inlineStr">
         <is>
           <t>A 40730-2023</t>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23690,6 +23690,63 @@
         <v>0</v>
       </c>
       <c r="R395" s="2" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>A 43264-2023</t>
+        </is>
+      </c>
+      <c r="B396" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C396" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>HALMSTAD</t>
+        </is>
+      </c>
+      <c r="G396" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N396" t="n">
+        <v>0</v>
+      </c>
+      <c r="O396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R396" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 59085-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 59085-2018.xlsx", "A 59085-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 59085-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 59085-2018.png", "A 59085-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 59085-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 59085-2018.docx", "A 59085-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 59085-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 59085-2018.docx", "A 59085-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 59085-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 59085-2018.docx", "A 59085-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 59085-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 59085-2018.docx", "A 59085-2018")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 30890-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 30890-2022.xlsx", "A 30890-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 30890-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 30890-2022.png", "A 30890-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 30890-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 30890-2022.docx", "A 30890-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 30890-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 30890-2022.docx", "A 30890-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 30890-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 30890-2022.docx", "A 30890-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 30890-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 30890-2022.docx", "A 30890-2022")</f>
         <v/>
       </c>
     </row>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,27 +802,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 38411-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 38411-2022.xlsx", "A 38411-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 38411-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 38411-2022.png", "A 38411-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 38411-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 38411-2022.docx", "A 38411-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 38411-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 38411-2022.docx", "A 38411-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 38411-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 38411-2022.docx", "A 38411-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 38411-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 38411-2022.docx", "A 38411-2022")</f>
         <v/>
       </c>
     </row>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -887,27 +887,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 12297-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 12297-2019.xlsx", "A 12297-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 12297-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 12297-2019.png", "A 12297-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 12297-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 12297-2019.docx", "A 12297-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 12297-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 12297-2019.docx", "A 12297-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 12297-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 12297-2019.docx", "A 12297-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 12297-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 12297-2019.docx", "A 12297-2019")</f>
         <v/>
       </c>
     </row>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,27 +972,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 14955-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 14955-2019.xlsx", "A 14955-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 14955-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 14955-2019.png", "A 14955-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 14955-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 14955-2019.docx", "A 14955-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 14955-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 14955-2019.docx", "A 14955-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 14955-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 14955-2019.docx", "A 14955-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 14955-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 14955-2019.docx", "A 14955-2019")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,27 +1057,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 36758-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 36758-2019.xlsx", "A 36758-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 36758-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 36758-2019.png", "A 36758-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 36758-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 36758-2019.docx", "A 36758-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 36758-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 36758-2019.docx", "A 36758-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 36758-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 36758-2019.docx", "A 36758-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 36758-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 36758-2019.docx", "A 36758-2019")</f>
         <v/>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1147,27 +1147,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 35100-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 35100-2020.xlsx", "A 35100-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 35100-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 35100-2020.png", "A 35100-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 35100-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 35100-2020.docx", "A 35100-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 35100-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 35100-2020.docx", "A 35100-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 35100-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 35100-2020.docx", "A 35100-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 35100-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 35100-2020.docx", "A 35100-2020")</f>
         <v/>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1232,27 +1232,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 35502-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 35502-2021.xlsx", "A 35502-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 35502-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 35502-2021.png", "A 35502-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 35502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 35502-2021.docx", "A 35502-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 35502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 35502-2021.docx", "A 35502-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 35502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 35502-2021.docx", "A 35502-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 35502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 35502-2021.docx", "A 35502-2021")</f>
         <v/>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1322,27 +1322,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 70769-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 70769-2021.xlsx", "A 70769-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 70769-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 70769-2021.png", "A 70769-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 70769-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 70769-2021.docx", "A 70769-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 70769-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 70769-2021.docx", "A 70769-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 70769-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 70769-2021.docx", "A 70769-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 70769-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 70769-2021.docx", "A 70769-2021")</f>
         <v/>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1412,27 +1412,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 70738-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 70738-2021.xlsx", "A 70738-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 70738-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 70738-2021.png", "A 70738-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 70738-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 70738-2021.docx", "A 70738-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 70738-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 70738-2021.docx", "A 70738-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 70738-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 70738-2021.docx", "A 70738-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 70738-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 70738-2021.docx", "A 70738-2021")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1502,27 +1502,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 71006-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 71006-2021.xlsx", "A 71006-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 71006-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 71006-2021.png", "A 71006-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 71006-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 71006-2021.docx", "A 71006-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 71006-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 71006-2021.docx", "A 71006-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 71006-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 71006-2021.docx", "A 71006-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 71006-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 71006-2021.docx", "A 71006-2021")</f>
         <v/>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,27 +1587,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 22842-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 22842-2022.xlsx", "A 22842-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 22842-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 22842-2022.png", "A 22842-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 22842-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 22842-2022.docx", "A 22842-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 22842-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 22842-2022.docx", "A 22842-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 22842-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 22842-2022.docx", "A 22842-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 22842-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 22842-2022.docx", "A 22842-2022")</f>
         <v/>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1677,27 +1677,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 44937-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 44937-2022.xlsx", "A 44937-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 44937-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 44937-2022.png", "A 44937-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 44937-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 44937-2022.docx", "A 44937-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 44937-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 44937-2022.docx", "A 44937-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 44937-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 44937-2022.docx", "A 44937-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 44937-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 44937-2022.docx", "A 44937-2022")</f>
         <v/>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1762,27 +1762,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 30046-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/artfynd/A 30046-2023.xlsx", "A 30046-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 30046-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/kartor/A 30046-2023.png", "A 30046-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 30046-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomål/A 30046-2023.docx", "A 30046-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 30046-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/klagomålsmail/A 30046-2023.docx", "A 30046-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 30046-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsyn/A 30046-2023.docx", "A 30046-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 30046-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALMSTAD/tillsynsmail/A 30046-2023.docx", "A 30046-2023")</f>
         <v/>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45183</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45183</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y396"/>
+  <dimension ref="A1:Y397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
       </c>
       <c r="R395" s="2" t="inlineStr"/>
     </row>
-    <row r="396">
+    <row r="396" ht="15" customHeight="1">
       <c r="A396" t="inlineStr">
         <is>
           <t>A 43264-2023</t>
@@ -23701,7 +23701,7 @@
         <v>45183</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23747,6 +23747,63 @@
         <v>0</v>
       </c>
       <c r="R396" s="2" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>A 44024-2023</t>
+        </is>
+      </c>
+      <c r="B397" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C397" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>HALMSTAD</t>
+        </is>
+      </c>
+      <c r="G397" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N397" t="n">
+        <v>0</v>
+      </c>
+      <c r="O397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R397" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45183</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45188</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45183</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45188</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y397"/>
+  <dimension ref="A1:Y398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45183</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="R396" s="2" t="inlineStr"/>
     </row>
-    <row r="397">
+    <row r="397" ht="15" customHeight="1">
       <c r="A397" t="inlineStr">
         <is>
           <t>A 44024-2023</t>
@@ -23758,7 +23758,7 @@
         <v>45188</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23804,6 +23804,63 @@
         <v>0</v>
       </c>
       <c r="R397" s="2" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>A 45586-2023</t>
+        </is>
+      </c>
+      <c r="B398" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C398" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>HALMSTAD</t>
+        </is>
+      </c>
+      <c r="G398" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N398" t="n">
+        <v>0</v>
+      </c>
+      <c r="O398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R398" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45183</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45188</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>45194</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y398"/>
+  <dimension ref="A1:Y399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45183</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45188</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
       </c>
       <c r="R397" s="2" t="inlineStr"/>
     </row>
-    <row r="398">
+    <row r="398" ht="15" customHeight="1">
       <c r="A398" t="inlineStr">
         <is>
           <t>A 45586-2023</t>
@@ -23815,7 +23815,7 @@
         <v>45194</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23861,6 +23861,68 @@
         <v>0</v>
       </c>
       <c r="R398" s="2" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>A 47463-2023</t>
+        </is>
+      </c>
+      <c r="B399" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C399" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>HALMSTAD</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G399" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N399" t="n">
+        <v>0</v>
+      </c>
+      <c r="O399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R399" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45183</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45188</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>45194</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>45202</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45183</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45188</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>45194</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>45202</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43539</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43672</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44040</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43318</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43417</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43417</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43417</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43423</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43494</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43495</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43500</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43500</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43500</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43514</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43528</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43543</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43605</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43606</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43609</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43633</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43641</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43641</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43644</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43654</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43685</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43698</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43724</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43742</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43775</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43788</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43788</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43795</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43795</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43796</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43811</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43845</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43872</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43909</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43924</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43924</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43927</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43937</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43944</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>43950</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43977</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43991</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43991</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43994</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43999</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44004</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44034</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44076</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44084</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44119</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44120</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44124</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44141</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44159</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44176</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44187</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44187</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44204</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44209</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44211</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44211</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44214</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44214</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44214</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44214</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44214</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44214</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44214</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44216</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44217</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44217</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44218</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44220</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44220</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44228</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44228</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44239</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44267</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44286</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44298</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44298</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44309</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44312</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44316</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44318</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44369</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44373</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44455</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44455</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44461</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44470</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44470</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44537</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44537</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44538</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44538</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44573</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44579</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44580</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>44609</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44609</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44621</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44621</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44622</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44622</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44622</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44638</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44638</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44642</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44649</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44662</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44699</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44699</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44705</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44711</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44711</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44711</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44712</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>44712</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>44715</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44734</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44734</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44742</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>44756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44802</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>44817</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44823</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>44823</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44827</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44827</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44827</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44845</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44854</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44854</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44855</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44860</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44862</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44879</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44897</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44897</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44910</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44922</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44922</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44938</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44959</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>44964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44964</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44964</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44974</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44992</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44998</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45002</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45002</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45006</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45015</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45015</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45015</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45042</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45049</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45050</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45050</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45063</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45065</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45079</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45079</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45079</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45079</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45082</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45082</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45091</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45091</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45098</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45099</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45099</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45099</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45122</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45126</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45154</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45154</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45154</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45159</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45159</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45170</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45183</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45188</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>45194</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>45202</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
